--- a/data/trans_orig/P20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDECC4E0-331B-4D8D-96D5-990209D2DDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A3A053-9859-4260-A49D-488123AE4A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{535D9D44-59ED-468F-BB0D-83138F39621E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28BC0E6C-FA10-4BE5-B943-597637E3CAB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="571">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1717 +77,1681 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
     <t>2,85%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>94,57%</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FF1F19-223B-412B-A508-567EBA67D4E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F2F869-72F6-4032-B1B5-9CD0B1D9DE33}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2821,10 +2785,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2803,13 @@
         <v>350332</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -2854,13 +2818,13 @@
         <v>351875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>717</v>
@@ -2869,13 +2833,13 @@
         <v>702207</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,7 +2895,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2943,13 +2907,13 @@
         <v>13053</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2958,13 +2922,13 @@
         <v>18842</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2973,13 +2937,13 @@
         <v>31895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2958,13 @@
         <v>190255</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -3009,13 +2973,13 @@
         <v>188826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>373</v>
@@ -3024,13 +2988,13 @@
         <v>379081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,7 +3050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3098,13 +3062,13 @@
         <v>10466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3113,13 +3077,13 @@
         <v>30572</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -3128,13 +3092,13 @@
         <v>41038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,10 +3113,10 @@
         <v>260345</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>117</v>
@@ -3253,13 +3217,13 @@
         <v>35533</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -3268,13 +3232,13 @@
         <v>53668</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -3283,13 +3247,13 @@
         <v>89201</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3268,13 @@
         <v>579494</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>568</v>
@@ -3319,13 +3283,13 @@
         <v>584551</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1131</v>
@@ -3334,13 +3298,13 @@
         <v>1164045</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,7 +3360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3408,13 +3372,13 @@
         <v>25711</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3423,13 +3387,13 @@
         <v>50494</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -3438,13 +3402,13 @@
         <v>76205</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3423,13 @@
         <v>718084</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>698</v>
@@ -3474,13 +3438,13 @@
         <v>733017</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1407</v>
@@ -3489,13 +3453,13 @@
         <v>1451101</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3527,13 @@
         <v>135426</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>242</v>
@@ -3578,13 +3542,13 @@
         <v>249341</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>378</v>
@@ -3593,13 +3557,13 @@
         <v>384767</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3578,13 @@
         <v>3140173</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>3055</v>
@@ -3629,13 +3593,13 @@
         <v>3129857</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>6132</v>
@@ -3644,13 +3608,13 @@
         <v>6270029</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3670,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292222BC-A385-4309-B95F-31A3D47EDFFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21D0767-B6D2-43DC-BB0E-0EEF1E029D2D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3747,7 +3711,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3852,39 +3816,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,39 +3861,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,39 +3906,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3955,13 @@
         <v>42216</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -4006,13 +3970,13 @@
         <v>59559</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -4021,13 +3985,13 @@
         <v>101775</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4006,13 @@
         <v>461264</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>424</v>
@@ -4057,13 +4021,13 @@
         <v>464206</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>858</v>
@@ -4072,13 +4036,13 @@
         <v>925470</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4110,13 @@
         <v>24444</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -4161,13 +4125,13 @@
         <v>35774</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4176,13 +4140,13 @@
         <v>60218</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4161,13 @@
         <v>299602</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>284</v>
@@ -4212,13 +4176,13 @@
         <v>305246</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>580</v>
@@ -4227,13 +4191,13 @@
         <v>604848</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4265,13 @@
         <v>45806</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4316,13 +4280,13 @@
         <v>75313</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -4331,13 +4295,13 @@
         <v>121119</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4316,13 @@
         <v>622914</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>557</v>
@@ -4444,7 +4408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4599,7 +4563,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4629,10 +4593,10 @@
         <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -4641,13 +4605,13 @@
         <v>42141</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4626,13 @@
         <v>258596</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -4677,13 +4641,13 @@
         <v>253275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -4692,13 +4656,13 @@
         <v>511871</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4730,13 @@
         <v>30749</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -4781,13 +4745,13 @@
         <v>58672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -4796,13 +4760,13 @@
         <v>89421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4781,13 @@
         <v>632039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>582</v>
@@ -4832,13 +4796,13 @@
         <v>635181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -4847,13 +4811,13 @@
         <v>1267220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4873,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4921,13 +4885,13 @@
         <v>37098</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -4936,13 +4900,13 @@
         <v>60769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -4951,13 +4915,13 @@
         <v>97867</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4936,13 @@
         <v>742000</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -4987,13 +4951,13 @@
         <v>763084</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -5002,13 +4966,13 @@
         <v>1505084</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5040,13 @@
         <v>208914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>314</v>
@@ -5091,13 +5055,13 @@
         <v>338233</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>507</v>
@@ -5106,13 +5070,13 @@
         <v>547147</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5091,13 @@
         <v>3215817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>2984</v>
@@ -5142,13 +5106,13 @@
         <v>3220076</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>5999</v>
@@ -5157,13 +5121,13 @@
         <v>6435893</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5183,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5243,7 +5207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A32B538-4EC5-4534-90F2-FEB3E6DF5F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3C39C2-3D99-40BF-BA2A-A4CF76F21D13}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5260,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5367,13 +5331,13 @@
         <v>15641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5382,13 +5346,13 @@
         <v>33613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5397,13 +5361,13 @@
         <v>49254</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5382,13 @@
         <v>278120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>244</v>
@@ -5433,13 +5397,13 @@
         <v>255090</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>495</v>
@@ -5448,13 +5412,13 @@
         <v>533210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5486,13 @@
         <v>20991</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5537,13 +5501,13 @@
         <v>36067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -5552,13 +5516,13 @@
         <v>57059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5537,13 @@
         <v>481584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5588,13 +5552,13 @@
         <v>487017</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>61</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -5603,13 +5567,13 @@
         <v>968600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5641,13 @@
         <v>9067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5692,13 +5656,13 @@
         <v>33377</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5707,13 +5671,13 @@
         <v>42444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5692,13 @@
         <v>309498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -5743,13 +5707,13 @@
         <v>302932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -5758,13 +5722,13 @@
         <v>612430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5796,13 @@
         <v>28057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5847,13 +5811,13 @@
         <v>31890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5862,13 +5826,13 @@
         <v>59947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5847,13 @@
         <v>341907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -5898,13 +5862,13 @@
         <v>355393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>658</v>
@@ -5913,13 +5877,13 @@
         <v>697300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,7 +5939,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5987,13 +5951,13 @@
         <v>8667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -6002,13 +5966,13 @@
         <v>11241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -6017,13 +5981,13 @@
         <v>19908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6002,13 @@
         <v>202554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>140</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -6053,13 +6017,13 @@
         <v>207346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -6068,13 +6032,13 @@
         <v>409900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,7 +6094,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6142,13 +6106,13 @@
         <v>19186</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -6157,13 +6121,13 @@
         <v>28422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -6172,13 +6136,13 @@
         <v>47607</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6157,13 @@
         <v>243937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -6208,13 +6172,13 @@
         <v>244693</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>46</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>477</v>
@@ -6223,13 +6187,13 @@
         <v>488631</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6261,13 @@
         <v>26160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -6312,13 +6276,13 @@
         <v>49196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -6327,13 +6291,13 @@
         <v>75356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6312,13 @@
         <v>630398</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>602</v>
@@ -6363,13 +6327,13 @@
         <v>642098</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -6378,13 +6342,13 @@
         <v>1272496</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>266</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,7 +6404,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6452,13 +6416,13 @@
         <v>35711</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6467,13 +6431,13 @@
         <v>49533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -6482,13 +6446,13 @@
         <v>85244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6467,13 @@
         <v>742872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>710</v>
@@ -6518,13 +6482,13 @@
         <v>776634</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="M26" s="7">
         <v>1426</v>
@@ -6533,13 +6497,13 @@
         <v>1519506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,10 +6574,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>251</v>
@@ -6622,13 +6586,13 @@
         <v>273339</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M28" s="7">
         <v>406</v>
@@ -6637,13 +6601,13 @@
         <v>436820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,10 +6625,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>3087</v>
@@ -6673,13 +6637,13 @@
         <v>3271203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>6163</v>
@@ -6688,13 +6652,13 @@
         <v>6502072</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6714,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +6738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19E3751-B2C8-4F47-97EC-20076099CADE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7242D139-ADF5-46A0-9E8B-D724F9036F98}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6791,7 +6755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6898,13 +6862,13 @@
         <v>10706</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -6913,13 +6877,13 @@
         <v>18017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>454</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -6928,13 +6892,13 @@
         <v>28723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,13 +6913,13 @@
         <v>249592</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
         <v>501</v>
@@ -6964,13 +6928,13 @@
         <v>253386</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>461</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>818</v>
@@ -6979,13 +6943,13 @@
         <v>502977</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7017,13 @@
         <v>40290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -7068,13 +7032,13 @@
         <v>24314</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -7083,13 +7047,13 @@
         <v>64604</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7068,13 @@
         <v>479007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H8" s="7">
         <v>687</v>
@@ -7119,13 +7083,13 @@
         <v>530252</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -7134,10 +7098,10 @@
         <v>1009260</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>480</v>
@@ -7211,7 +7175,7 @@
         <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>482</v>
@@ -7265,7 +7229,7 @@
         <v>490</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
         <v>487</v>
@@ -7363,7 +7327,7 @@
         <v>23787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>497</v>
@@ -7381,7 +7345,7 @@
         <v>499</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>500</v>
@@ -7393,13 +7357,13 @@
         <v>60834</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7378,13 @@
         <v>298453</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>555</v>
@@ -7429,13 +7393,13 @@
         <v>391509</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>507</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -7444,13 +7408,13 @@
         <v>689962</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,7 +7470,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7518,13 +7482,13 @@
         <v>4760</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -7533,13 +7497,13 @@
         <v>9090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>515</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>516</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -7548,13 +7512,13 @@
         <v>13850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>518</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7533,13 @@
         <v>191988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -7584,13 +7548,13 @@
         <v>222813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>524</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>525</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>742</v>
@@ -7599,13 +7563,13 @@
         <v>414801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>528</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,7 +7625,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7673,13 +7637,13 @@
         <v>25111</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -7688,13 +7652,13 @@
         <v>23133</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>534</v>
+        <v>482</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -7703,13 +7667,13 @@
         <v>48245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7688,13 @@
         <v>252112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>419</v>
@@ -7739,13 +7703,13 @@
         <v>252489</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
@@ -7754,13 +7718,13 @@
         <v>504600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,13 +7792,13 @@
         <v>36797</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>548</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -7843,13 +7807,13 @@
         <v>54698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>551</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -7858,13 +7822,13 @@
         <v>91494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +7843,13 @@
         <v>590957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>556</v>
+        <v>337</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
@@ -7894,13 +7858,13 @@
         <v>749505</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>557</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>559</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>1433</v>
@@ -7909,13 +7873,13 @@
         <v>1340463</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,7 +7935,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7983,13 +7947,13 @@
         <v>26774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>544</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -7998,13 +7962,13 @@
         <v>34800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>565</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -8013,13 +7977,13 @@
         <v>61574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>391</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +7998,13 @@
         <v>832654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>553</v>
       </c>
       <c r="H26" s="7">
         <v>1023</v>
@@ -8049,13 +8013,13 @@
         <v>830872</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>571</v>
+        <v>106</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="M26" s="7">
         <v>1756</v>
@@ -8064,13 +8028,13 @@
         <v>1663526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>400</v>
+        <v>557</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8102,13 @@
         <v>196401</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>560</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>484</v>
+        <v>561</v>
       </c>
       <c r="H28" s="7">
         <v>344</v>
@@ -8153,13 +8117,13 @@
         <v>236366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>412</v>
+        <v>564</v>
       </c>
       <c r="M28" s="7">
         <v>572</v>
@@ -8168,13 +8132,13 @@
         <v>432766</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,13 +8153,13 @@
         <v>3188827</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>567</v>
       </c>
       <c r="H29" s="7">
         <v>5019</v>
@@ -8204,13 +8168,13 @@
         <v>3568844</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>418</v>
+        <v>569</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="M29" s="7">
         <v>8167</v>
@@ -8219,13 +8183,13 @@
         <v>6757672</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,7 +8245,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A3A053-9859-4260-A49D-488123AE4A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7DE4E4-DFD9-448A-BA9E-DADECC620B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28BC0E6C-FA10-4BE5-B943-597637E3CAB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53796CCB-27B0-421F-8FCC-F286404ABACA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="567">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1635 +77,1626 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
     <t>97,16%</t>
   </si>
   <si>
@@ -1713,9 +1704,6 @@
   </si>
   <si>
     <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
   </si>
   <si>
     <t>5,8%</t>
@@ -2163,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F2F869-72F6-4032-B1B5-9CD0B1D9DE33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390B917C-E885-4EA4-97A2-CEE9AC218847}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2618,7 +2606,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -2627,13 +2615,13 @@
         <v>23699</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2636,13 @@
         <v>311471</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -2663,13 +2651,13 @@
         <v>319088</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -2678,13 +2666,13 @@
         <v>630559</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,7 +2728,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2752,13 +2740,13 @@
         <v>7395</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2767,13 +2755,13 @@
         <v>19581</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2782,13 +2770,13 @@
         <v>26976</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2791,13 @@
         <v>350332</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -2818,13 +2806,13 @@
         <v>351875</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>717</v>
@@ -2833,13 +2821,13 @@
         <v>702207</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2883,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2907,13 +2895,13 @@
         <v>13053</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2922,13 +2910,13 @@
         <v>18842</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2937,13 +2925,13 @@
         <v>31895</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2946,13 @@
         <v>190255</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -2973,13 +2961,13 @@
         <v>188826</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>373</v>
@@ -2988,13 +2976,13 @@
         <v>379081</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3038,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3062,13 +3050,13 @@
         <v>10466</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3077,13 +3065,13 @@
         <v>30572</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -3092,13 +3080,13 @@
         <v>41038</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,10 +3101,10 @@
         <v>260345</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>117</v>
@@ -3217,13 +3205,13 @@
         <v>35533</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -3232,13 +3220,13 @@
         <v>53668</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -3247,13 +3235,13 @@
         <v>89201</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3256,13 @@
         <v>579494</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>568</v>
@@ -3283,13 +3271,13 @@
         <v>584551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1131</v>
@@ -3298,13 +3286,13 @@
         <v>1164045</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3348,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3372,13 +3360,13 @@
         <v>25711</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3387,13 +3375,13 @@
         <v>50494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -3402,13 +3390,13 @@
         <v>76205</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3411,13 @@
         <v>718084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>698</v>
@@ -3438,10 +3426,10 @@
         <v>733017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>156</v>
@@ -3530,10 +3518,10 @@
         <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>242</v>
@@ -3542,13 +3530,13 @@
         <v>249341</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>378</v>
@@ -3557,10 +3545,10 @@
         <v>384767</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>166</v>
@@ -3584,7 +3572,7 @@
         <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>3055</v>
@@ -3593,13 +3581,13 @@
         <v>3129857</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6132</v>
@@ -3608,13 +3596,13 @@
         <v>6270029</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,7 +3682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21D0767-B6D2-43DC-BB0E-0EEF1E029D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312C32B1-6650-4781-A425-BC6CC71DFA1C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4128,10 +4116,10 @@
         <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4140,13 +4128,13 @@
         <v>60218</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4149,13 @@
         <v>299602</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>284</v>
@@ -4176,13 +4164,13 @@
         <v>305246</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>580</v>
@@ -4191,13 +4179,13 @@
         <v>604848</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,7 +4241,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4265,13 +4253,13 @@
         <v>45806</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4280,13 +4268,13 @@
         <v>75313</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -4295,13 +4283,13 @@
         <v>121119</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4304,13 @@
         <v>622914</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>557</v>
@@ -4331,13 +4319,13 @@
         <v>600883</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1139</v>
@@ -4346,13 +4334,13 @@
         <v>1223797</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,7 +4396,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4420,13 +4408,13 @@
         <v>13216</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4435,13 +4423,13 @@
         <v>21390</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4450,13 +4438,13 @@
         <v>34606</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4459,13 @@
         <v>199402</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4486,13 +4474,13 @@
         <v>198201</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -4501,13 +4489,13 @@
         <v>397603</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4551,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4575,13 +4563,13 @@
         <v>15385</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -4590,13 +4578,13 @@
         <v>26756</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -4605,13 +4593,13 @@
         <v>42141</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4614,13 @@
         <v>258596</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -4641,13 +4629,13 @@
         <v>253275</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -4656,13 +4644,13 @@
         <v>511871</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4718,13 @@
         <v>30749</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -4745,13 +4733,13 @@
         <v>58672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -4760,13 +4748,13 @@
         <v>89421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4769,13 @@
         <v>632039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>582</v>
@@ -4796,13 +4784,13 @@
         <v>635181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -4811,13 +4799,13 @@
         <v>1267220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4861,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4885,13 +4873,13 @@
         <v>37098</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -4900,13 +4888,13 @@
         <v>60769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -4915,13 +4903,13 @@
         <v>97867</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4924,13 @@
         <v>742000</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -4951,13 +4939,13 @@
         <v>763084</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4966,13 +4954,13 @@
         <v>1505084</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5028,13 @@
         <v>208914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>32</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H28" s="7">
         <v>314</v>
@@ -5055,13 +5043,13 @@
         <v>338233</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M28" s="7">
         <v>507</v>
@@ -5070,13 +5058,13 @@
         <v>547147</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5079,13 @@
         <v>3215817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="H29" s="7">
         <v>2984</v>
@@ -5106,13 +5094,13 @@
         <v>3220076</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>5999</v>
@@ -5121,13 +5109,13 @@
         <v>6435893</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3C39C2-3D99-40BF-BA2A-A4CF76F21D13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A814CDFD-E25E-4433-A5E0-72C62A0893AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5224,7 +5212,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5331,13 +5319,13 @@
         <v>15641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5346,13 +5334,13 @@
         <v>33613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5361,13 +5349,13 @@
         <v>49254</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5370,13 @@
         <v>278120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>244</v>
@@ -5397,13 +5385,13 @@
         <v>255090</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>495</v>
@@ -5412,13 +5400,13 @@
         <v>533210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5474,13 @@
         <v>20991</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5501,13 +5489,13 @@
         <v>36067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>53</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -5516,13 +5504,13 @@
         <v>57059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5525,13 @@
         <v>481584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5552,13 +5540,13 @@
         <v>487017</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>61</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -5567,13 +5555,13 @@
         <v>968600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5629,13 @@
         <v>9067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5656,13 +5644,13 @@
         <v>33377</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5671,13 +5659,13 @@
         <v>42444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5680,13 @@
         <v>309498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -5707,13 +5695,13 @@
         <v>302932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -5722,13 +5710,13 @@
         <v>612430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,7 +5772,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5796,13 +5784,13 @@
         <v>28057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5811,13 +5799,13 @@
         <v>31890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5826,13 +5814,13 @@
         <v>59947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5835,13 @@
         <v>341907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -5862,13 +5850,13 @@
         <v>355393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>658</v>
@@ -5877,13 +5865,13 @@
         <v>697300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,7 +5927,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5951,13 +5939,13 @@
         <v>8667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5966,13 +5954,13 @@
         <v>11241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -5981,13 +5969,13 @@
         <v>19908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5990,13 @@
         <v>202554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -6017,13 +6005,13 @@
         <v>207346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -6032,13 +6020,13 @@
         <v>409900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6082,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6106,13 +6094,13 @@
         <v>19186</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -6121,13 +6109,13 @@
         <v>28422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -6136,13 +6124,13 @@
         <v>47607</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6145,13 @@
         <v>243937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -6172,13 +6160,13 @@
         <v>244693</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>477</v>
@@ -6187,13 +6175,13 @@
         <v>488631</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6249,13 @@
         <v>26160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>75</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -6276,13 +6264,13 @@
         <v>49196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -6291,13 +6279,13 @@
         <v>75356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>411</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6300,13 @@
         <v>630398</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7">
         <v>602</v>
@@ -6327,13 +6315,13 @@
         <v>642098</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -6342,13 +6330,13 @@
         <v>1272496</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>266</v>
+        <v>417</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,7 +6392,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6416,13 +6404,13 @@
         <v>35711</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>232</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6431,13 +6419,13 @@
         <v>49533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -6446,13 +6434,13 @@
         <v>85244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,13 +6455,13 @@
         <v>742872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>710</v>
@@ -6482,13 +6470,13 @@
         <v>776634</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="M26" s="7">
         <v>1426</v>
@@ -6497,13 +6485,13 @@
         <v>1519506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>261</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,10 +6562,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="H28" s="7">
         <v>251</v>
@@ -6586,13 +6574,13 @@
         <v>273339</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M28" s="7">
         <v>406</v>
@@ -6601,13 +6589,13 @@
         <v>436820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>320</v>
+        <v>233</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>236</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,10 +6613,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>445</v>
+        <v>337</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H29" s="7">
         <v>3087</v>
@@ -6637,13 +6625,13 @@
         <v>3271203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M29" s="7">
         <v>6163</v>
@@ -6652,13 +6640,13 @@
         <v>6502072</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,7 +6726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7242D139-ADF5-46A0-9E8B-D724F9036F98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557E76B1-F8C4-41B4-9F10-C4F6EFB66178}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6755,7 +6743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6862,13 +6850,13 @@
         <v>10706</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -6877,13 +6865,13 @@
         <v>18017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -6892,13 +6880,13 @@
         <v>28723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6901,13 @@
         <v>249592</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>501</v>
@@ -6928,13 +6916,13 @@
         <v>253386</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M5" s="7">
         <v>818</v>
@@ -6943,13 +6931,13 @@
         <v>502977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,13 +7005,13 @@
         <v>40290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -7032,13 +7020,13 @@
         <v>24314</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -7047,13 +7035,13 @@
         <v>64604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7056,13 @@
         <v>479007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7">
         <v>687</v>
@@ -7083,13 +7071,13 @@
         <v>530252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -7098,13 +7086,13 @@
         <v>1009260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,13 +7160,13 @@
         <v>28175</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -7187,13 +7175,13 @@
         <v>35267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -7202,13 +7190,13 @@
         <v>63441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,13 +7211,13 @@
         <v>294065</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>487</v>
@@ -7238,13 +7226,13 @@
         <v>338017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>812</v>
@@ -7253,13 +7241,13 @@
         <v>632083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,7 +7303,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7327,13 +7315,13 @@
         <v>23787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7342,13 +7330,13 @@
         <v>37047</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -7357,13 +7345,13 @@
         <v>60834</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>494</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,13 +7366,13 @@
         <v>298453</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H14" s="7">
         <v>555</v>
@@ -7393,13 +7381,13 @@
         <v>391509</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -7408,13 +7396,13 @@
         <v>689962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,7 +7458,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7482,13 +7470,13 @@
         <v>4760</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -7497,13 +7485,13 @@
         <v>9090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>510</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -7512,13 +7500,13 @@
         <v>13850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,13 +7521,13 @@
         <v>191988</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -7548,13 +7536,13 @@
         <v>222813</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>742</v>
@@ -7569,7 +7557,7 @@
         <v>520</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,7 +7613,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7640,10 +7628,10 @@
         <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>522</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -7652,13 +7640,13 @@
         <v>23133</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>524</v>
+        <v>362</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -7667,13 +7655,13 @@
         <v>48245</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,13 +7676,13 @@
         <v>252112</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>419</v>
@@ -7703,13 +7691,13 @@
         <v>252489</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
@@ -7718,13 +7706,13 @@
         <v>504600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,13 +7780,13 @@
         <v>36797</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -7807,13 +7795,13 @@
         <v>54698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -7822,13 +7810,13 @@
         <v>91494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,13 +7831,13 @@
         <v>590957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
@@ -7858,13 +7846,13 @@
         <v>749505</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="M23" s="7">
         <v>1433</v>
@@ -7873,13 +7861,13 @@
         <v>1340463</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7935,7 +7923,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7947,13 +7935,13 @@
         <v>26774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>545</v>
+        <v>391</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -7962,13 +7950,13 @@
         <v>34800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>96</v>
+        <v>545</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -7977,13 +7965,13 @@
         <v>61574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,13 +7986,13 @@
         <v>832654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>552</v>
+        <v>401</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H26" s="7">
         <v>1023</v>
@@ -8013,13 +8001,13 @@
         <v>830872</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>106</v>
+        <v>551</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M26" s="7">
         <v>1756</v>
@@ -8028,13 +8016,13 @@
         <v>1663526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>558</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8102,13 +8090,13 @@
         <v>196401</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H28" s="7">
         <v>344</v>
@@ -8117,13 +8105,13 @@
         <v>236366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M28" s="7">
         <v>572</v>
@@ -8132,13 +8120,13 @@
         <v>432766</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8153,13 +8141,13 @@
         <v>3188827</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H29" s="7">
         <v>5019</v>
@@ -8168,13 +8156,13 @@
         <v>3568844</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M29" s="7">
         <v>8167</v>
@@ -8183,13 +8171,13 @@
         <v>6757672</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7DE4E4-DFD9-448A-BA9E-DADECC620B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4923517A-A666-4EE4-9765-A52BA6760268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53796CCB-27B0-421F-8FCC-F286404ABACA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2E202A4-5907-47B5-9EF9-749224D4D976}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="583">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1675 +71,1723 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,0%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>94,58%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390B917C-E885-4EA4-97A2-CEE9AC218847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91E5041-CFF7-44FA-BE78-D4C0A0482868}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2606,7 +2654,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -2615,13 +2663,13 @@
         <v>23699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2684,13 @@
         <v>311471</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -2651,13 +2699,13 @@
         <v>319088</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -2666,13 +2714,13 @@
         <v>630559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,7 +2776,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2740,13 +2788,13 @@
         <v>7395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2755,13 +2803,13 @@
         <v>19581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2770,13 +2818,13 @@
         <v>26976</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2839,13 @@
         <v>350332</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -2806,13 +2854,13 @@
         <v>351875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>717</v>
@@ -2821,13 +2869,13 @@
         <v>702207</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,7 +3429,7 @@
         <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -3390,13 +3438,13 @@
         <v>76205</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3459,13 @@
         <v>718084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>698</v>
@@ -3426,13 +3474,13 @@
         <v>733017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1407</v>
@@ -3441,13 +3489,13 @@
         <v>1451101</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3563,13 @@
         <v>135426</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>242</v>
@@ -3530,13 +3578,13 @@
         <v>249341</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>378</v>
@@ -3548,10 +3596,10 @@
         <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3614,13 @@
         <v>3140173</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>3055</v>
@@ -3581,13 +3629,13 @@
         <v>3129857</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>6132</v>
@@ -3599,10 +3647,10 @@
         <v>134</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3706,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312C32B1-6650-4781-A425-BC6CC71DFA1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CAA840-D197-4616-986B-0D69BA8150E3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3699,7 +3747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3804,39 +3852,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,39 +3897,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,39 +3942,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3991,13 @@
         <v>42216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -3958,13 +4006,13 @@
         <v>59559</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -3973,13 +4021,13 @@
         <v>101775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4042,13 @@
         <v>461264</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>424</v>
@@ -4009,13 +4057,13 @@
         <v>464206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>858</v>
@@ -4024,13 +4072,13 @@
         <v>925470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4146,13 @@
         <v>24444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -4113,13 +4161,13 @@
         <v>35774</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4128,13 +4176,13 @@
         <v>60218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4197,13 @@
         <v>299602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>284</v>
@@ -4164,13 +4212,13 @@
         <v>305246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>580</v>
@@ -4179,13 +4227,13 @@
         <v>604848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,7 +4289,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4253,13 +4301,13 @@
         <v>45806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4268,13 +4316,13 @@
         <v>75313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -4283,13 +4331,13 @@
         <v>121119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4352,13 @@
         <v>622914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>557</v>
@@ -4319,13 +4367,13 @@
         <v>600883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1139</v>
@@ -4334,13 +4382,13 @@
         <v>1223797</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4456,13 @@
         <v>13216</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4423,13 +4471,13 @@
         <v>21390</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4438,13 +4486,13 @@
         <v>34606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4507,13 @@
         <v>199402</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4474,13 +4522,13 @@
         <v>198201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -4489,13 +4537,13 @@
         <v>397603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4611,13 @@
         <v>15385</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -4578,13 +4626,13 @@
         <v>26756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -4593,13 +4641,13 @@
         <v>42141</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4662,13 @@
         <v>258596</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -4629,13 +4677,13 @@
         <v>253275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -4724,7 +4772,7 @@
         <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -4733,13 +4781,13 @@
         <v>58672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -4748,13 +4796,13 @@
         <v>89421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4817,13 @@
         <v>632039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>582</v>
@@ -4784,13 +4832,13 @@
         <v>635181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -4799,13 +4847,13 @@
         <v>1267220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4921,13 @@
         <v>37098</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -4888,13 +4936,13 @@
         <v>60769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -4903,13 +4951,13 @@
         <v>97867</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4972,13 @@
         <v>742000</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -4939,13 +4987,13 @@
         <v>763084</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4954,13 +5002,13 @@
         <v>1505084</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5076,13 @@
         <v>208914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="H28" s="7">
         <v>314</v>
@@ -5043,13 +5091,13 @@
         <v>338233</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M28" s="7">
         <v>507</v>
@@ -5058,13 +5106,13 @@
         <v>547147</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5127,13 @@
         <v>3215817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="H29" s="7">
         <v>2984</v>
@@ -5094,13 +5142,13 @@
         <v>3220076</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M29" s="7">
         <v>5999</v>
@@ -5109,13 +5157,13 @@
         <v>6435893</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,7 +5219,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A814CDFD-E25E-4433-A5E0-72C62A0893AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A949B3CD-FB43-41F6-BD7D-2215E8C944AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5212,7 +5260,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5319,13 +5367,13 @@
         <v>15641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5334,13 +5382,13 @@
         <v>33613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5349,13 +5397,13 @@
         <v>49254</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5418,13 @@
         <v>278120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H5" s="7">
         <v>244</v>
@@ -5385,13 +5433,13 @@
         <v>255090</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>495</v>
@@ -5400,13 +5448,13 @@
         <v>533210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5522,13 @@
         <v>20991</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5489,13 +5537,13 @@
         <v>36067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -5504,13 +5552,13 @@
         <v>57059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5573,13 @@
         <v>481584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5540,13 +5588,13 @@
         <v>487017</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -5555,13 +5603,13 @@
         <v>968600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5677,13 @@
         <v>9067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5644,13 +5692,13 @@
         <v>33377</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5659,13 +5707,13 @@
         <v>42444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5728,13 @@
         <v>309498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -5695,13 +5743,13 @@
         <v>302932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -5710,13 +5758,13 @@
         <v>612430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,7 +5820,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5784,13 +5832,13 @@
         <v>28057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5799,13 +5847,13 @@
         <v>31890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5814,13 +5862,13 @@
         <v>59947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5883,13 @@
         <v>341907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -5850,13 +5898,13 @@
         <v>355393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>658</v>
@@ -5865,13 +5913,13 @@
         <v>697300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5987,13 @@
         <v>8667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5954,13 +6002,13 @@
         <v>11241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -5969,13 +6017,13 @@
         <v>19908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6038,13 @@
         <v>202554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -6005,7 +6053,7 @@
         <v>207346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>385</v>
@@ -6112,10 +6160,10 @@
         <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -6124,13 +6172,13 @@
         <v>47607</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6193,13 @@
         <v>243937</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -6160,13 +6208,13 @@
         <v>244693</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>46</v>
       </c>
       <c r="M20" s="7">
         <v>477</v>
@@ -6175,13 +6223,13 @@
         <v>488631</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6297,13 @@
         <v>26160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -6267,10 +6315,10 @@
         <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>94</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -6279,13 +6327,13 @@
         <v>75356</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6348,13 @@
         <v>630398</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H23" s="7">
         <v>602</v>
@@ -6318,10 +6366,10 @@
         <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -6422,10 +6470,10 @@
         <v>423</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -6434,13 +6482,13 @@
         <v>85244</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>251</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6503,13 @@
         <v>742872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H26" s="7">
         <v>710</v>
@@ -6470,13 +6518,13 @@
         <v>776634</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M26" s="7">
         <v>1426</v>
@@ -6488,10 +6536,10 @@
         <v>433</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>261</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>27</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,10 +6610,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="H28" s="7">
         <v>251</v>
@@ -6574,13 +6622,13 @@
         <v>273339</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>406</v>
@@ -6589,13 +6637,13 @@
         <v>436820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>236</v>
+        <v>440</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,10 +6661,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H29" s="7">
         <v>3087</v>
@@ -6625,13 +6673,13 @@
         <v>3271203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M29" s="7">
         <v>6163</v>
@@ -6640,13 +6688,13 @@
         <v>6502072</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>246</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,7 +6750,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6726,7 +6774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557E76B1-F8C4-41B4-9F10-C4F6EFB66178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96317696-4317-4EC5-8715-C7B09F8309A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6743,7 +6791,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6850,13 +6898,13 @@
         <v>10706</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -6865,13 +6913,13 @@
         <v>18017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>454</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -6880,13 +6928,13 @@
         <v>28723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6949,13 @@
         <v>249592</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>501</v>
@@ -6916,13 +6964,13 @@
         <v>253386</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>818</v>
@@ -6931,13 +6979,13 @@
         <v>502977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,10 +7056,10 @@
         <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -7020,13 +7068,13 @@
         <v>24314</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -7035,13 +7083,13 @@
         <v>64604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>464</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,10 +7107,10 @@
         <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="H8" s="7">
         <v>687</v>
@@ -7071,13 +7119,13 @@
         <v>530252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -7086,13 +7134,13 @@
         <v>1009260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>471</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7208,13 @@
         <v>28175</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -7175,13 +7223,13 @@
         <v>35267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -7190,13 +7238,13 @@
         <v>63441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7259,13 @@
         <v>294065</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>487</v>
@@ -7226,13 +7274,13 @@
         <v>338017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>812</v>
@@ -7241,13 +7289,13 @@
         <v>632083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,7 +7351,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7315,13 +7363,13 @@
         <v>23787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7330,13 +7378,13 @@
         <v>37047</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>492</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -7345,13 +7393,13 @@
         <v>60834</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7414,13 @@
         <v>298453</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>555</v>
@@ -7381,13 +7429,13 @@
         <v>391509</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -7396,13 +7444,13 @@
         <v>689962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7518,13 @@
         <v>4760</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -7485,13 +7533,13 @@
         <v>9090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -7500,13 +7548,13 @@
         <v>13850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>518</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7569,13 @@
         <v>191988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -7536,13 +7584,13 @@
         <v>222813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>742</v>
@@ -7551,13 +7599,13 @@
         <v>414801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,13 +7673,13 @@
         <v>25111</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -7640,13 +7688,13 @@
         <v>23133</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>362</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -7655,13 +7703,13 @@
         <v>48245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>343</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,13 +7724,13 @@
         <v>252112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
         <v>419</v>
@@ -7691,13 +7739,13 @@
         <v>252489</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
@@ -7706,13 +7754,13 @@
         <v>504600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,13 +7828,13 @@
         <v>36797</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -7795,13 +7843,13 @@
         <v>54698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -7810,10 +7858,10 @@
         <v>91494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>93</v>
@@ -7831,13 +7879,13 @@
         <v>590957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>556</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
@@ -7846,13 +7894,13 @@
         <v>749505</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="M23" s="7">
         <v>1433</v>
@@ -7861,13 +7909,13 @@
         <v>1340463</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>454</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7935,13 +7983,13 @@
         <v>26774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>542</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>391</v>
+        <v>562</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -7950,13 +7998,13 @@
         <v>34800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -7965,13 +8013,13 @@
         <v>61574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>567</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>547</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7986,13 +8034,13 @@
         <v>832654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>401</v>
+        <v>569</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>549</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>1023</v>
@@ -8001,13 +8049,13 @@
         <v>830872</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="M26" s="7">
         <v>1756</v>
@@ -8016,13 +8064,13 @@
         <v>1663526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>554</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8090,13 +8138,13 @@
         <v>196401</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>556</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="H28" s="7">
         <v>344</v>
@@ -8105,13 +8153,13 @@
         <v>236366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>560</v>
+        <v>412</v>
       </c>
       <c r="M28" s="7">
         <v>572</v>
@@ -8120,13 +8168,13 @@
         <v>432766</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8141,13 +8189,13 @@
         <v>3188827</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>562</v>
+        <v>493</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>563</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>5019</v>
@@ -8156,13 +8204,13 @@
         <v>3568844</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>565</v>
+        <v>418</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>8167</v>
@@ -8171,13 +8219,13 @@
         <v>6757672</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,7 +8281,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4923517A-A666-4EE4-9765-A52BA6760268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3EB6DDD-1734-4E72-A4F9-67087FA8716F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2E202A4-5907-47B5-9EF9-749224D4D976}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8F314368-05CA-4DB2-A37B-E4048CAE4D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="592">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -575,7 +575,52 @@
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>8,38%</t>
@@ -686,228 +731,234 @@
     <t>92,84%</t>
   </si>
   <si>
-    <t>6,85%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
     <t>94,35%</t>
   </si>
   <si>
@@ -938,9 +989,6 @@
     <t>7,84%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
     <t>93,9%</t>
   </si>
   <si>
@@ -959,9 +1007,6 @@
     <t>92,16%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -1388,406 +1433,388 @@
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91E5041-CFF7-44FA-BE78-D4C0A0482868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCE385B-2DB5-4D8F-A77D-1478ACE3ACC5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3626,7 +3653,7 @@
         <v>3055</v>
       </c>
       <c r="I29" s="7">
-        <v>3129857</v>
+        <v>3129856</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>172</v>
@@ -3677,7 +3704,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3730,7 +3757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CAA840-D197-4616-986B-0D69BA8150E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200F0AA-AA72-478A-99CC-AC597997FA4B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3848,43 +3875,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25654</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I4" s="7">
+        <v>36932</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="N4" s="7">
+        <v>62586</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,43 +3926,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>258</v>
+      </c>
+      <c r="D5" s="7">
+        <v>269084</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="I5" s="7">
+        <v>250313</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>480</v>
+      </c>
+      <c r="N5" s="7">
+        <v>519397</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,43 +3977,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4036,13 @@
         <v>42216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -4006,13 +4051,13 @@
         <v>59559</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -4021,13 +4066,13 @@
         <v>101775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4087,13 @@
         <v>461264</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>424</v>
@@ -4057,13 +4102,13 @@
         <v>464206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>858</v>
@@ -4072,13 +4117,13 @@
         <v>925470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4191,13 @@
         <v>24444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -4161,13 +4206,13 @@
         <v>35774</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4176,13 +4221,13 @@
         <v>60218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4242,13 @@
         <v>299602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>284</v>
@@ -4212,13 +4257,13 @@
         <v>305246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>580</v>
@@ -4227,13 +4272,13 @@
         <v>604848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,49 +4340,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>45806</v>
+        <v>20152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>75313</v>
+        <v>38381</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>121119</v>
+        <v>58533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,49 +4391,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>582</v>
+        <v>324</v>
       </c>
       <c r="D14" s="7">
-        <v>622914</v>
+        <v>353830</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
-        <v>557</v>
+        <v>335</v>
       </c>
       <c r="I14" s="7">
-        <v>600883</v>
+        <v>350570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
-        <v>1139</v>
+        <v>659</v>
       </c>
       <c r="N14" s="7">
-        <v>1223797</v>
+        <v>704400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,10 +4442,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4412,10 +4457,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4427,10 +4472,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4456,13 +4501,13 @@
         <v>13216</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4471,13 +4516,13 @@
         <v>21390</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4486,13 +4531,13 @@
         <v>34606</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4552,13 @@
         <v>199402</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4522,13 +4567,13 @@
         <v>198201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -4537,13 +4582,13 @@
         <v>397603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4656,13 @@
         <v>15385</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -4626,13 +4671,13 @@
         <v>26756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -4641,13 +4686,13 @@
         <v>42141</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4707,13 @@
         <v>258596</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -4677,10 +4722,10 @@
         <v>253275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>156</v>
@@ -4692,13 +4737,13 @@
         <v>511871</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4811,13 @@
         <v>30749</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -4781,13 +4826,13 @@
         <v>58672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -4796,10 +4841,10 @@
         <v>89421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>166</v>
@@ -4817,13 +4862,13 @@
         <v>632039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H23" s="7">
         <v>582</v>
@@ -4832,13 +4877,13 @@
         <v>635181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -4847,13 +4892,13 @@
         <v>1267220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>173</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,10 +4966,10 @@
         <v>37098</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>19</v>
@@ -4939,10 +4984,10 @@
         <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -4951,13 +4996,13 @@
         <v>97867</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +5017,13 @@
         <v>742000</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -4990,10 +5035,10 @@
         <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -5002,13 +5047,13 @@
         <v>1505084</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,10 +5121,10 @@
         <v>208914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
@@ -5091,13 +5136,13 @@
         <v>338233</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>507</v>
@@ -5106,13 +5151,13 @@
         <v>547147</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5172,13 @@
         <v>3215817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>2984</v>
@@ -5142,13 +5187,13 @@
         <v>3220076</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>5999</v>
@@ -5157,13 +5202,13 @@
         <v>6435893</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,7 +5288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A949B3CD-FB43-41F6-BD7D-2215E8C944AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D82CB13-92F1-422E-AD4B-A66CC7305FC4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5260,7 +5305,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5367,13 +5412,13 @@
         <v>15641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5382,13 +5427,13 @@
         <v>33613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5397,13 +5442,13 @@
         <v>49254</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5463,13 @@
         <v>278120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>244</v>
@@ -5433,13 +5478,13 @@
         <v>255090</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>495</v>
@@ -5448,13 +5493,13 @@
         <v>533210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5567,13 @@
         <v>20991</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5537,13 +5582,13 @@
         <v>36067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -5552,13 +5597,13 @@
         <v>57059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5618,13 @@
         <v>481584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5588,13 +5633,13 @@
         <v>487017</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -5603,13 +5648,13 @@
         <v>968600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,10 +5725,10 @@
         <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5692,13 +5737,13 @@
         <v>33377</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5707,13 +5752,13 @@
         <v>42444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,10 +5776,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>299</v>
@@ -5743,13 +5788,13 @@
         <v>302932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -5758,13 +5803,13 @@
         <v>612430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5877,13 @@
         <v>28057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5847,13 +5892,13 @@
         <v>31890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5862,13 +5907,13 @@
         <v>59947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5928,13 @@
         <v>341907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -5898,13 +5943,13 @@
         <v>355393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>658</v>
@@ -5913,13 +5958,13 @@
         <v>697300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,10 +6032,10 @@
         <v>8667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>131</v>
@@ -6005,10 +6050,10 @@
         <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -6017,13 +6062,13 @@
         <v>19908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6083,13 @@
         <v>202554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -6056,10 +6101,10 @@
         <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -6068,13 +6113,13 @@
         <v>409900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6187,13 @@
         <v>19186</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -6157,13 +6202,13 @@
         <v>28422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -6172,13 +6217,13 @@
         <v>47607</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6238,13 @@
         <v>243937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -6208,10 +6253,10 @@
         <v>244693</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>46</v>
@@ -6223,13 +6268,13 @@
         <v>488631</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6342,13 @@
         <v>26160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -6315,10 +6360,10 @@
         <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -6327,13 +6372,13 @@
         <v>75356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6393,13 @@
         <v>630398</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>602</v>
@@ -6366,10 +6411,10 @@
         <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -6378,13 +6423,13 @@
         <v>1272496</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6497,13 @@
         <v>35711</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6467,13 +6512,13 @@
         <v>49533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -6482,13 +6527,13 @@
         <v>85244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6548,13 @@
         <v>742872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>710</v>
@@ -6518,13 +6563,13 @@
         <v>776634</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>1426</v>
@@ -6533,13 +6578,13 @@
         <v>1519506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,10 +6655,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="H28" s="7">
         <v>251</v>
@@ -6622,13 +6667,13 @@
         <v>273339</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>406</v>
@@ -6637,13 +6682,13 @@
         <v>436820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,10 +6706,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>3087</v>
@@ -6673,13 +6718,13 @@
         <v>3271203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>6163</v>
@@ -6688,13 +6733,13 @@
         <v>6502072</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96317696-4317-4EC5-8715-C7B09F8309A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8080E7-4CCA-47CD-B548-C01395E81C0B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6791,7 +6836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6895,46 +6940,46 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>10706</v>
+        <v>12044</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>18017</v>
+        <v>18894</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>28723</v>
+        <v>30938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,46 +6991,46 @@
         <v>317</v>
       </c>
       <c r="D5" s="7">
-        <v>249592</v>
+        <v>299399</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="H5" s="7">
         <v>501</v>
       </c>
       <c r="I5" s="7">
-        <v>253386</v>
+        <v>270741</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>818</v>
       </c>
       <c r="N5" s="7">
-        <v>502977</v>
+        <v>570139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,7 +7042,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7012,7 +7057,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7027,7 +7072,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7050,46 +7095,46 @@
         <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>40290</v>
+        <v>38744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>482</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>24314</v>
+        <v>22411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>64604</v>
+        <v>61155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,46 +7146,46 @@
         <v>347</v>
       </c>
       <c r="D8" s="7">
-        <v>479007</v>
+        <v>479646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>489</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="H8" s="7">
         <v>687</v>
       </c>
       <c r="I8" s="7">
-        <v>530252</v>
+        <v>492558</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
       </c>
       <c r="N8" s="7">
-        <v>1009260</v>
+        <v>972204</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,7 +7197,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7167,7 +7212,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7182,7 +7227,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7205,46 +7250,46 @@
         <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>28175</v>
+        <v>27141</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>481</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>496</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>35267</v>
+        <v>32844</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>63441</v>
+        <v>59985</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,46 +7301,46 @@
         <v>325</v>
       </c>
       <c r="D11" s="7">
-        <v>294065</v>
+        <v>288909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>505</v>
       </c>
       <c r="H11" s="7">
         <v>487</v>
       </c>
       <c r="I11" s="7">
-        <v>338017</v>
+        <v>316284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="M11" s="7">
         <v>812</v>
       </c>
       <c r="N11" s="7">
-        <v>632083</v>
+        <v>605193</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,7 +7352,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7322,7 +7367,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7337,7 +7382,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7360,46 +7405,46 @@
         <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>23787</v>
+        <v>23237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>512</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>497</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>37047</v>
+        <v>33638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
       </c>
       <c r="N13" s="7">
-        <v>60834</v>
+        <v>56875</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,46 +7456,46 @@
         <v>268</v>
       </c>
       <c r="D14" s="7">
-        <v>298453</v>
+        <v>289320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>519</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>505</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>555</v>
       </c>
       <c r="I14" s="7">
-        <v>391509</v>
+        <v>442080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
       </c>
       <c r="N14" s="7">
-        <v>689962</v>
+        <v>731399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,7 +7507,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7477,7 +7522,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7492,7 +7537,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7515,46 +7560,46 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>4760</v>
+        <v>4308</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>9090</v>
+        <v>8257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>515</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>516</v>
+        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>13850</v>
+        <v>12565</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,46 +7611,46 @@
         <v>271</v>
       </c>
       <c r="D17" s="7">
-        <v>191988</v>
+        <v>174434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
       </c>
       <c r="I17" s="7">
-        <v>222813</v>
+        <v>200399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>524</v>
+        <v>49</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>525</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>742</v>
       </c>
       <c r="N17" s="7">
-        <v>414801</v>
+        <v>374833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,7 +7662,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7632,7 +7677,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7647,7 +7692,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7670,46 +7715,46 @@
         <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>25111</v>
+        <v>24252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
       </c>
       <c r="I19" s="7">
-        <v>23133</v>
+        <v>21577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>533</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
       </c>
       <c r="N19" s="7">
-        <v>48245</v>
+        <v>45830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>535</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,46 +7766,46 @@
         <v>330</v>
       </c>
       <c r="D20" s="7">
-        <v>252112</v>
+        <v>245384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="H20" s="7">
         <v>419</v>
       </c>
       <c r="I20" s="7">
-        <v>252489</v>
+        <v>235479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>543</v>
+        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>749</v>
       </c>
       <c r="N20" s="7">
-        <v>504600</v>
+        <v>480862</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>544</v>
+        <v>186</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,7 +7817,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7787,7 +7832,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7802,7 +7847,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7825,46 +7870,46 @@
         <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>36797</v>
+        <v>35242</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>547</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>548</v>
+        <v>72</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>549</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
       </c>
       <c r="I22" s="7">
-        <v>54698</v>
+        <v>50835</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>552</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
       </c>
       <c r="N22" s="7">
-        <v>91494</v>
+        <v>86077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>553</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,28 +7921,28 @@
         <v>557</v>
       </c>
       <c r="D23" s="7">
-        <v>590957</v>
+        <v>589037</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>554</v>
+        <v>306</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>555</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
       </c>
       <c r="I23" s="7">
-        <v>749505</v>
+        <v>798430</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>558</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>559</v>
@@ -7906,16 +7951,16 @@
         <v>1433</v>
       </c>
       <c r="N23" s="7">
-        <v>1340463</v>
+        <v>1387467</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,7 +7972,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7942,7 +7987,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7957,7 +8002,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7980,22 +8025,22 @@
         <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>26774</v>
+        <v>23090</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>562</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>34800</v>
+        <v>28387</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>563</v>
@@ -8010,7 +8055,7 @@
         <v>67</v>
       </c>
       <c r="N25" s="7">
-        <v>61574</v>
+        <v>51477</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>566</v>
@@ -8019,7 +8064,7 @@
         <v>567</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>391</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,22 +8076,22 @@
         <v>733</v>
       </c>
       <c r="D26" s="7">
-        <v>832654</v>
+        <v>905630</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="H26" s="7">
         <v>1023</v>
       </c>
       <c r="I26" s="7">
-        <v>830872</v>
+        <v>687005</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>570</v>
@@ -8061,16 +8106,16 @@
         <v>1756</v>
       </c>
       <c r="N26" s="7">
-        <v>1663526</v>
+        <v>1592635</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>573</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,7 +8127,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8097,7 +8142,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8112,7 +8157,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8135,46 +8180,46 @@
         <v>228</v>
       </c>
       <c r="D28" s="7">
-        <v>196401</v>
+        <v>188058</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>577</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>484</v>
+        <v>578</v>
       </c>
       <c r="H28" s="7">
         <v>344</v>
       </c>
       <c r="I28" s="7">
-        <v>236366</v>
+        <v>216843</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>576</v>
+        <v>487</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>412</v>
+        <v>580</v>
       </c>
       <c r="M28" s="7">
         <v>572</v>
       </c>
       <c r="N28" s="7">
-        <v>432766</v>
+        <v>404902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>581</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,46 +8231,46 @@
         <v>3148</v>
       </c>
       <c r="D29" s="7">
-        <v>3188827</v>
+        <v>3271759</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>586</v>
       </c>
       <c r="H29" s="7">
         <v>5019</v>
       </c>
       <c r="I29" s="7">
-        <v>3568844</v>
+        <v>3442974</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>580</v>
+        <v>494</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>418</v>
+        <v>587</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="M29" s="7">
         <v>8167</v>
       </c>
       <c r="N29" s="7">
-        <v>6757672</v>
+        <v>6714732</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>589</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>279</v>
+        <v>590</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,7 +8282,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8252,7 +8297,7 @@
         <v>5363</v>
       </c>
       <c r="I30" s="7">
-        <v>3805210</v>
+        <v>3659817</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8267,7 +8312,7 @@
         <v>8739</v>
       </c>
       <c r="N30" s="7">
-        <v>7190438</v>
+        <v>7119634</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
